--- a/biology/Botanique/Marie-Antoinette_Mulot/Marie-Antoinette_Mulot.xlsx
+++ b/biology/Botanique/Marie-Antoinette_Mulot/Marie-Antoinette_Mulot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Antoinette Mulot, née le 26 août 1919 en Camargue et morte le 8 novembre 1999 à Saint-Gilles (Gard), est une herboriste française. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Par sa formation d'herboriste à la faculté de pharmacie de Montpellier — dont elle a été la dernière diplômée en 1941 —, elle a su créer un trait d'union entre la connaissance empirique des simples et les connaissances modernes de la pharmacopée d'aujourd'hui[1].
-Ses études d'herboriste se fondent sur les connaissances de la pharmacopée de 1937[2]. Elle donne des cours, des démonstrations et des entretiens à l'association « L’École des plantes Clotilde-Boisvert », dont Paul Jovet a été le premier président d’honneur[3]. Autrice de plusieurs ouvrages sur l'herboristerie, elle est officier du mérite agricole et chevalier des palmes académiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par sa formation d'herboriste à la faculté de pharmacie de Montpellier — dont elle a été la dernière diplômée en 1941 —, elle a su créer un trait d'union entre la connaissance empirique des simples et les connaissances modernes de la pharmacopée d'aujourd'hui.
+Ses études d'herboriste se fondent sur les connaissances de la pharmacopée de 1937. Elle donne des cours, des démonstrations et des entretiens à l'association « L’École des plantes Clotilde-Boisvert », dont Paul Jovet a été le premier président d’honneur. Autrice de plusieurs ouvrages sur l'herboristerie, elle est officier du mérite agricole et chevalier des palmes académiques.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Élixirs de santé de votre herboriste, 1985
 Soignez vos animaux par les plantes, 1986
